--- a/экономика/рк.xlsx
+++ b/экономика/рк.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Учёба\8 семестр\экономика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7271431-20F3-4954-BABC-B607BDCCF2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9374E77E-6298-4640-ADBD-1D23F820FCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12030" yWindow="735" windowWidth="20700" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="РК1" sheetId="1" r:id="rId1"/>
     <sheet name="РК2" sheetId="2" r:id="rId2"/>
+    <sheet name="РК3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>А</t>
   </si>
@@ -115,6 +114,162 @@
   </si>
   <si>
     <t>ДС</t>
+  </si>
+  <si>
+    <t>Материальные затраты</t>
+  </si>
+  <si>
+    <t>Расходы на оплату труда</t>
+  </si>
+  <si>
+    <t>Отчисления на соц. Нужды</t>
+  </si>
+  <si>
+    <t>Амортизация</t>
+  </si>
+  <si>
+    <t>Прочие произв. Затраты</t>
+  </si>
+  <si>
+    <t>Итого по элементам</t>
+  </si>
+  <si>
+    <t>МЗ</t>
+  </si>
+  <si>
+    <t>З</t>
+  </si>
+  <si>
+    <t>ЗП</t>
+  </si>
+  <si>
+    <t>АМ</t>
+  </si>
+  <si>
+    <t>ПЗ</t>
+  </si>
+  <si>
+    <t>МЗ%</t>
+  </si>
+  <si>
+    <t>ЗП%</t>
+  </si>
+  <si>
+    <t>АМ%</t>
+  </si>
+  <si>
+    <t>ПЗ%</t>
+  </si>
+  <si>
+    <t>Выручка</t>
+  </si>
+  <si>
+    <t>В</t>
+  </si>
+  <si>
+    <t>Материалоемкость</t>
+  </si>
+  <si>
+    <t>Зарплатоемкость</t>
+  </si>
+  <si>
+    <t>Амортизациоекость</t>
+  </si>
+  <si>
+    <t>Емкость прочих затрат</t>
+  </si>
+  <si>
+    <t>Затратоемкость</t>
+  </si>
+  <si>
+    <t>МЗ-ЕМ</t>
+  </si>
+  <si>
+    <t>ЗП-ЕМ</t>
+  </si>
+  <si>
+    <t>АМ-ЕМ</t>
+  </si>
+  <si>
+    <t>ПЗ-ЕМ</t>
+  </si>
+  <si>
+    <t>З-ЕМ</t>
+  </si>
+  <si>
+    <t>КР</t>
+  </si>
+  <si>
+    <t>УР</t>
+  </si>
+  <si>
+    <t>РС</t>
+  </si>
+  <si>
+    <t>ТС</t>
+  </si>
+  <si>
+    <t>ОР</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Запасы</t>
+  </si>
+  <si>
+    <t>ОБ-А</t>
+  </si>
+  <si>
+    <t>ОБ-ОА</t>
+  </si>
+  <si>
+    <t>ОБ-ЗАП</t>
+  </si>
+  <si>
+    <t>ЗАП</t>
+  </si>
+  <si>
+    <t>ДЕБ</t>
+  </si>
+  <si>
+    <t>КРЕД</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>Д-ЗАП</t>
+  </si>
+  <si>
+    <t>Д-ДЕБ</t>
+  </si>
+  <si>
+    <t>Д-КРЕД</t>
+  </si>
+  <si>
+    <t>Ц-ОПЕР</t>
+  </si>
+  <si>
+    <t>Ц-ФИН</t>
+  </si>
+  <si>
+    <t>П-ЧИСТ</t>
+  </si>
+  <si>
+    <t>ROS</t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>ROE</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>ИК</t>
   </si>
 </sst>
 </file>
@@ -150,8 +305,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -654,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AECAF9-A6FC-4350-A325-0513ECCB4562}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,4 +1099,707 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA19BDE7-3465-42E4-A8C5-094B5D3796F7}">
+  <dimension ref="A1:M52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2">
+        <v>1987394</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1681961</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3">
+        <f>D11/D21</f>
+        <v>3.1211575413520515E-2</v>
+      </c>
+      <c r="L3">
+        <f>E11/E21</f>
+        <v>2.9900988860316276E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2">
+        <v>378477</v>
+      </c>
+      <c r="E4" s="2">
+        <v>330430</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <f>D12/D21</f>
+        <v>0.44540089378150782</v>
+      </c>
+      <c r="L4">
+        <f>E12/E21</f>
+        <v>0.40804254018624547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2">
+        <v>33761867</v>
+      </c>
+      <c r="E5" s="2">
+        <v>27462006</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5">
+        <f>D13/D21</f>
+        <v>2.7939471466077868E-2</v>
+      </c>
+      <c r="L5">
+        <f>E13/E21</f>
+        <v>2.7898739916710425E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2">
+        <v>2117842</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1877636</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6">
+        <f>D14/D21</f>
+        <v>0.56928282917778106</v>
+      </c>
+      <c r="L6">
+        <f>E14/E21</f>
+        <v>0.59193310683228018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2">
+        <v>43152251</v>
+      </c>
+      <c r="E7" s="2">
+        <v>39838176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="2">
+        <v>102249</v>
+      </c>
+      <c r="L8" s="2">
+        <v>48848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2613340</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2457987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <f>D2</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2">
+        <f>D3+D4</f>
+        <v>2365871</v>
+      </c>
+      <c r="E11" s="2">
+        <f>E3+E4</f>
+        <v>2012391</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="2">
+        <f>D10+D3+D4+D5+D6</f>
+        <v>38245580</v>
+      </c>
+      <c r="L11" s="2">
+        <f>E10+E3+E4+E5+E6</f>
+        <v>31352033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2">
+        <f>D5</f>
+        <v>33761867</v>
+      </c>
+      <c r="E12" s="2">
+        <f>E5</f>
+        <v>27462006</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2">
+        <f>D6</f>
+        <v>2117842</v>
+      </c>
+      <c r="E13" s="2">
+        <f>E6</f>
+        <v>1877636</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2">
+        <f>D7</f>
+        <v>43152251</v>
+      </c>
+      <c r="E14" s="2">
+        <f>E7</f>
+        <v>39838176</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <f>(D10/D14)*100</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>(E10/E14)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <f>(D11/D14)*100</f>
+        <v>5.4826131781630583</v>
+      </c>
+      <c r="E16">
+        <f>(E11/E14)*100</f>
+        <v>5.0514134984493264</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <f>(D12/D14)*100</f>
+        <v>78.238947488509922</v>
+      </c>
+      <c r="E17">
+        <f>(E12/E14)*100</f>
+        <v>68.933893961410291</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <f>(D13/D14)*100</f>
+        <v>4.9078366734565018</v>
+      </c>
+      <c r="E18">
+        <f>(E13/E14)*100</f>
+        <v>4.7131575501850289</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2">
+        <v>75801076</v>
+      </c>
+      <c r="E21" s="2">
+        <v>67301821</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="2">
+        <v>320520</v>
+      </c>
+      <c r="E22" s="2">
+        <v>86097</v>
+      </c>
+      <c r="F22" s="2">
+        <v>40831</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>389713577</v>
+      </c>
+      <c r="E23" s="2">
+        <v>334671255</v>
+      </c>
+      <c r="F23" s="2">
+        <v>311347596</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>817387627</v>
+      </c>
+      <c r="E24" s="2">
+        <v>752250293</v>
+      </c>
+      <c r="F24" s="2">
+        <v>661065485</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <f>D21/D24</f>
+        <v>9.2735776143575019E-2</v>
+      </c>
+      <c r="E25">
+        <f>E21/E24</f>
+        <v>8.9467324408207316E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <f>D21/D23</f>
+        <v>0.19450458098871931</v>
+      </c>
+      <c r="E26">
+        <f>E21/E23</f>
+        <v>0.20109830167517673</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27">
+        <f>D21/D22</f>
+        <v>236.49405965306377</v>
+      </c>
+      <c r="E27">
+        <f>E21/E22</f>
+        <v>781.69763174094339</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="2">
+        <v>316416517</v>
+      </c>
+      <c r="E30" s="2">
+        <v>280789547</v>
+      </c>
+      <c r="F30" s="2">
+        <v>289735235</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="2">
+        <v>6145052</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2881548</v>
+      </c>
+      <c r="F31" s="2">
+        <v>19114812</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32">
+        <v>360</v>
+      </c>
+      <c r="E32">
+        <v>360</v>
+      </c>
+      <c r="F32">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33">
+        <f>(D32*D22)/D21</f>
+        <v>1.5222369666625841</v>
+      </c>
+      <c r="E33">
+        <f>(E32*E22)/E21</f>
+        <v>0.46053612724683929</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34">
+        <f>(D32*D30)/D21</f>
+        <v>1502.7484058405714</v>
+      </c>
+      <c r="E34">
+        <f>(E32*E30)/E21</f>
+        <v>1501.9539652574929</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35">
+        <f>(D32*D31)/D21</f>
+        <v>29.184529253911911</v>
+      </c>
+      <c r="E35">
+        <f>(E32*E31)/E21</f>
+        <v>15.413509836531764</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36">
+        <f>D33+D34</f>
+        <v>1504.270642807234</v>
+      </c>
+      <c r="E36">
+        <f>E33+E34</f>
+        <v>1502.4145013847397</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37">
+        <f>D36-D35</f>
+        <v>1475.0861135533221</v>
+      </c>
+      <c r="E37">
+        <f>E36-E35</f>
+        <v>1487.0009915482078</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="2">
+        <v>760138</v>
+      </c>
+      <c r="E40" s="2">
+        <v>301977</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <f>D24</f>
+        <v>817387627</v>
+      </c>
+      <c r="E41" s="2">
+        <f>E24</f>
+        <v>752250293</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="2">
+        <f>D21</f>
+        <v>75801076</v>
+      </c>
+      <c r="E42" s="2">
+        <f>E21</f>
+        <v>67301821</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45">
+        <f>D40/D42</f>
+        <v>1.0028063453874981E-2</v>
+      </c>
+      <c r="E45">
+        <f>E40/E42</f>
+        <v>4.4869068252997198E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46">
+        <f>D40/D41</f>
+        <v>9.2996024761211611E-4</v>
+      </c>
+      <c r="E46">
+        <f>E40/E41</f>
+        <v>4.0143154852848956E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47">
+        <f>D40/РК1!B8</f>
+        <v>5.4847901154548686E-3</v>
+      </c>
+      <c r="E47">
+        <f>E40/РК1!C8</f>
+        <v>2.5504762274934896E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48">
+        <f>D40/D52</f>
+        <v>1.0356495903866615E-3</v>
+      </c>
+      <c r="E48">
+        <f>E40/E52</f>
+        <v>4.5227741554237439E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52">
+        <f>РК1!B8+РК1!B9</f>
+        <v>733972192</v>
+      </c>
+      <c r="E52">
+        <f>РК1!C8+РК1!C9</f>
+        <v>667680918</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/экономика/рк.xlsx
+++ b/экономика/рк.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Учёба\8 семестр\экономика\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aalex\OneDrive\Рабочий стол\Учёба\8_sem\экономика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9374E77E-6298-4640-ADBD-1D23F820FCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35063D86-102F-49B1-8CF3-71379211B88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12030" yWindow="735" windowWidth="20700" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="РК1" sheetId="1" r:id="rId1"/>
@@ -22,21 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>А</t>
   </si>
@@ -307,10 +298,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -597,14 +588,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -615,7 +606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -632,7 +623,7 @@
         <v>661065485</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -646,7 +637,7 @@
         <v>349717889</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -660,7 +651,7 @@
         <v>311347596</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -677,7 +668,7 @@
         <v>52.902155222942845</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -694,7 +685,7 @@
         <v>47.097844777057148</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -711,7 +702,7 @@
         <v>0.89028215539754674</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -725,7 +716,7 @@
         <v>107135015</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -739,7 +730,7 @@
         <v>461242065</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -753,7 +744,7 @@
         <v>92688405</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -770,7 +761,7 @@
         <v>16.206414860700221</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -787,7 +778,7 @@
         <v>69.7725226117349</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -817,16 +808,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="12" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="12" max="13" width="15.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>1</v>
       </c>
@@ -846,7 +837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -875,7 +866,7 @@
         <v>289735235</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -904,7 +895,7 @@
         <v>7037827</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -921,7 +912,7 @@
         <v>85938</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -938,7 +929,7 @@
         <v>8.0214671179165838E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -955,7 +946,7 @@
         <v>6.1703961585294964</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1</v>
       </c>
@@ -966,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -983,7 +974,7 @@
         <v>0.16206414860700222</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +991,7 @@
         <v>0.83793585139299775</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1008,7 @@
         <v>2.0409685012878378</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1034,7 +1025,7 @@
         <v>0.70229927518052848</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1</v>
       </c>
@@ -1045,7 +1036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1062,7 +1053,7 @@
         <v>8399004.5160380788</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1079,7 +1070,7 @@
         <v>3.201835893065589</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1103,21 +1094,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA19BDE7-3465-42E4-A8C5-094B5D3796F7}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:E48"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E56" sqref="D56:E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="4" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D1">
         <v>1</v>
       </c>
@@ -1137,12 +1128,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2">
         <v>0</v>
       </c>
@@ -1162,16 +1153,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1">
         <v>1987394</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1681961</v>
       </c>
       <c r="I3" t="s">
@@ -1189,16 +1180,16 @@
         <v>2.9900988860316276E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1">
         <v>378477</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>330430</v>
       </c>
       <c r="I4" t="s">
@@ -1216,16 +1207,16 @@
         <v>0.40804254018624547</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1">
         <v>33761867</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>27462006</v>
       </c>
       <c r="I5" t="s">
@@ -1243,16 +1234,16 @@
         <v>2.7898739916710425E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1">
         <v>2117842</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>1877636</v>
       </c>
       <c r="I6" t="s">
@@ -1270,31 +1261,31 @@
         <v>0.59193310683228018</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1">
         <v>43152251</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>39838176</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J8" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>102249</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>48848</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>1</v>
       </c>
@@ -1307,14 +1298,14 @@
       <c r="J9" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>2613340</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>2457987</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>32</v>
       </c>
@@ -1327,79 +1318,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f>D3+D4</f>
         <v>2365871</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f>E3+E4</f>
         <v>2012391</v>
       </c>
       <c r="J11" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <f>D10+D3+D4+D5+D6</f>
         <v>38245580</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <f>E10+E3+E4+E5+E6</f>
         <v>31352033</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="2">
-        <f>D5</f>
+      <c r="D12" s="1">
+        <f t="shared" ref="D12:E14" si="0">D5</f>
         <v>33761867</v>
       </c>
-      <c r="E12" s="2">
-        <f>E5</f>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
         <v>27462006</v>
       </c>
       <c r="J12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="2">
-        <f>D6</f>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
         <v>2117842</v>
       </c>
-      <c r="E13" s="2">
-        <f>E6</f>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
         <v>1877636</v>
       </c>
       <c r="J13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="2">
-        <f>D7</f>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
         <v>43152251</v>
       </c>
-      <c r="E14" s="2">
-        <f>E7</f>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
         <v>39838176</v>
       </c>
       <c r="J14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>37</v>
       </c>
@@ -1412,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1425,7 +1416,7 @@
         <v>5.0514134984493264</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>39</v>
       </c>
@@ -1438,7 +1429,7 @@
         <v>68.933893961410291</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>40</v>
       </c>
@@ -1451,7 +1442,7 @@
         <v>4.7131575501850289</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>1</v>
       </c>
@@ -1462,66 +1453,66 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>75801076</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>67301821</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>320520</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>86097</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>40831</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>389713577</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>334671255</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>311347596</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>817387627</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>752250293</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>661065485</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>60</v>
       </c>
@@ -1534,7 +1525,7 @@
         <v>8.9467324408207316E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>61</v>
       </c>
@@ -1547,7 +1538,7 @@
         <v>0.20109830167517673</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>62</v>
       </c>
@@ -1560,7 +1551,7 @@
         <v>781.69763174094339</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D29">
         <v>1</v>
       </c>
@@ -1571,35 +1562,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>316416517</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>280789547</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>289735235</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>6145052</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>2881548</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>19114812</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>66</v>
       </c>
@@ -1613,7 +1604,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>67</v>
       </c>
@@ -1626,7 +1617,7 @@
         <v>0.46053612724683929</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>68</v>
       </c>
@@ -1639,7 +1630,7 @@
         <v>1501.9539652574929</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>69</v>
       </c>
@@ -1652,7 +1643,7 @@
         <v>15.413509836531764</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>70</v>
       </c>
@@ -1665,7 +1656,7 @@
         <v>1502.4145013847397</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>71</v>
       </c>
@@ -1678,7 +1669,7 @@
         <v>1487.0009915482078</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D39">
         <v>1</v>
       </c>
@@ -1689,44 +1680,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>760138</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>301977</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <f>D24</f>
         <v>817387627</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <f>E24</f>
         <v>752250293</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <f>D21</f>
         <v>75801076</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <f>E21</f>
         <v>67301821</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>73</v>
       </c>
@@ -1739,7 +1730,7 @@
         <v>4.4869068252997198E-3</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>74</v>
       </c>
@@ -1752,7 +1743,7 @@
         <v>4.0143154852848956E-4</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>75</v>
       </c>
@@ -1765,7 +1756,7 @@
         <v>2.5504762274934896E-3</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>76</v>
       </c>
@@ -1778,7 +1769,7 @@
         <v>4.5227741554237439E-4</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>77</v>
       </c>
@@ -1791,14 +1782,53 @@
         <v>667680918</v>
       </c>
     </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="1">
+        <f>D10+D3+D4+D12+D13</f>
+        <v>38245580</v>
+      </c>
+      <c r="E54" s="1">
+        <f>E10+E3+E4+E12+E13</f>
+        <v>31352033</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="1">
+        <f>D54+K8+K9</f>
+        <v>40961169</v>
+      </c>
+      <c r="E55" s="1">
+        <f>E54+L8+L9</f>
+        <v>33858868</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56">
+        <f>D55*1.2*1.15</f>
+        <v>56526413.219999991</v>
+      </c>
+      <c r="E56">
+        <f>E55*1.2*1.15</f>
+        <v>46725237.839999996</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
